--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -46,153 +46,153 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>broken</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>bit</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>better</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>box</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>little</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -202,52 +202,52 @@
     <t>classic</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>friends</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -677,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8450704225352113</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K5">
-        <v>0.7311827956989247</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7903225806451613</v>
+        <v>0.7718446601941747</v>
       </c>
       <c r="C6">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D6">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>60</v>
@@ -901,13 +901,13 @@
         <v>61</v>
       </c>
       <c r="K7">
-        <v>0.6037735849056604</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7524271844660194</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K8">
-        <v>0.463768115942029</v>
+        <v>0.4549180327868853</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>555</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>555</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>37</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7454545454545455</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K9">
-        <v>0.457752255947498</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L9">
-        <v>558</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>559</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>661</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.722972972972973</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K10">
-        <v>0.4066091954022988</v>
+        <v>0.4195402298850575</v>
       </c>
       <c r="L10">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M10">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6470588235294118</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K11">
-        <v>0.3796680497925311</v>
+        <v>0.4004149377593361</v>
       </c>
       <c r="L11">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M11">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6296296296296297</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K12">
-        <v>0.3166666666666667</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>82</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.5536231884057971</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K13">
-        <v>0.3119266055045872</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>225</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5449275362318841</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C14">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,31 +1245,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K14">
-        <v>0.283132530120482</v>
+        <v>0.3085106382978723</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5421686746987951</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,31 +1295,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K15">
-        <v>0.2751322751322751</v>
+        <v>0.296969696969697</v>
       </c>
       <c r="L15">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4724409448818898</v>
+        <v>0.4765625</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>70</v>
       </c>
       <c r="K16">
-        <v>0.2265625</v>
+        <v>0.25</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4549763033175355</v>
+        <v>0.4207920792079208</v>
       </c>
       <c r="C17">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,31 +1395,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>0.21285140562249</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L17">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4526315789473684</v>
+        <v>0.4170616113744076</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,31 +1445,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K18">
-        <v>0.1612903225806452</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4453125</v>
+        <v>0.3979591836734694</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,31 +1495,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K19">
-        <v>0.1551270815074496</v>
+        <v>0.1694468832309043</v>
       </c>
       <c r="L19">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M19">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>964</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4207920792079208</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C20">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,31 +1545,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K20">
-        <v>0.1030640668523677</v>
+        <v>0.09511400651465798</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>322</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3595505617977528</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,31 +1595,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K21">
-        <v>0.09635416666666667</v>
+        <v>0.09192200557103064</v>
       </c>
       <c r="L21">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1388</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1627,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3079710144927536</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1645,31 +1645,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K22">
-        <v>0.0862533692722372</v>
+        <v>0.04423592493297587</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N22">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O22">
-        <v>0.08999999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>339</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1677,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3076923076923077</v>
+        <v>0.3041237113402062</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1695,31 +1695,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K23">
-        <v>0.04301075268817205</v>
+        <v>0.04322766570605188</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N23">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="O23">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>712</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3041237113402062</v>
+        <v>0.3</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,13 +1753,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3006329113924051</v>
+        <v>0.2974683544303797</v>
       </c>
       <c r="C25">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1779,13 +1779,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2959183673469388</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1805,13 +1805,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2857142857142857</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1831,25 +1831,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2757078986587183</v>
+        <v>0.2526002971768202</v>
       </c>
       <c r="C28">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D28">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E28">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F28">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1857,25 +1857,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2689873417721519</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="C29">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D29">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>231</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1883,25 +1883,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2538631346578367</v>
+        <v>0.2420382165605096</v>
       </c>
       <c r="C30">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="E30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>338</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1909,13 +1909,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2420382165605096</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>119</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1935,13 +1935,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.24</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C32">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1961,13 +1961,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2349726775956284</v>
+        <v>0.2097701149425287</v>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>140</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1987,25 +1987,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2342857142857143</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2013,13 +2013,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2242990654205607</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2039,25 +2039,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2097701149425287</v>
+        <v>0.162534435261708</v>
       </c>
       <c r="C36">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2065,13 +2065,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2083333333333333</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2091,25 +2091,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2041884816753927</v>
+        <v>0.1588447653429603</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>152</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2117,25 +2117,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1836158192090395</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C39">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>289</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2143,25 +2143,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1788617886178862</v>
+        <v>0.1503759398496241</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E40">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2169,25 +2169,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1647940074906367</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>223</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2195,22 +2195,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1589041095890411</v>
+        <v>0.1278409090909091</v>
       </c>
       <c r="C42">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D42">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>307</v>
@@ -2221,25 +2221,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1407942238267148</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="C43">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E43">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F43">
-        <v>0.9299999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>238</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2247,13 +2247,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1238095238095238</v>
+        <v>0.1041322314049587</v>
       </c>
       <c r="C44">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E44">
         <v>0.05</v>
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>276</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2273,25 +2273,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.107981220657277</v>
+        <v>0.1008968609865471</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E45">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="F45">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2299,25 +2299,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1056105610561056</v>
+        <v>0.09475032010243278</v>
       </c>
       <c r="C46">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D46">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>542</v>
+        <v>707</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2325,25 +2325,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09383033419023136</v>
+        <v>0.08595988538681948</v>
       </c>
       <c r="C47">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D47">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="F47">
-        <v>0.8200000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>705</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2351,25 +2351,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08705357142857142</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2377,25 +2377,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.08346213292117466</v>
+        <v>0.06891271056661562</v>
       </c>
       <c r="C49">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E49">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2403,25 +2403,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07728337236533958</v>
+        <v>0.066</v>
       </c>
       <c r="C50">
         <v>33</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E50">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F50">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>394</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
